--- a/Stockbook/Stockbook/Transaction Template.xlsx
+++ b/Stockbook/Stockbook/Transaction Template.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17030"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Franz Justin\Documents\visual studio 2015\Projects\NorthernVentures\NorthernVentures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franz\Source\Repos\Stockbook\Stockbook\Stockbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14952" windowHeight="5688"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14950" windowHeight="5690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -224,14 +224,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -241,6 +240,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -251,9 +253,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -573,29 +572,33 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="A1:F7"/>
+      <selection activeCell="J5" sqref="A5:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" customWidth="1"/>
+    <col min="2" max="2" width="9.6328125" customWidth="1"/>
+    <col min="3" max="3" width="10.90625" customWidth="1"/>
     <col min="4" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.44140625" customWidth="1"/>
+    <col min="10" max="10" width="27.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-    </row>
-    <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
@@ -604,9 +607,12 @@
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
@@ -615,8 +621,12 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-    </row>
-    <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
@@ -625,11 +635,13 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="11"/>
@@ -637,11 +649,11 @@
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="12"/>
@@ -650,8 +662,8 @@
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="13"/>
@@ -660,7 +672,7 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -676,23 +688,23 @@
       <c r="E8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -704,7 +716,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -716,7 +728,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -728,16 +740,16 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="27" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B5:F5"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="B5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Stockbook/Stockbook/Transaction Template.xlsx
+++ b/Stockbook/Stockbook/Transaction Template.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franz\Source\Repos\Stockbook\Stockbook\Stockbook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FranzJustin\Source\Repos\Stockbook\Stockbook\Stockbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14950" windowHeight="5690"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14952" windowHeight="5688"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -240,21 +240,19 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,107 +570,107 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="A5:J5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" customWidth="1"/>
-    <col min="2" max="2" width="9.6328125" customWidth="1"/>
-    <col min="3" max="3" width="10.90625" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
     <col min="4" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.453125" customWidth="1"/>
+    <col min="10" max="10" width="27.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-    </row>
-    <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+    </row>
+    <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-    </row>
-    <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="10" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+    </row>
+    <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-    </row>
-    <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="10" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+    </row>
+    <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -704,7 +702,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -716,7 +714,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -728,7 +726,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -740,16 +738,15 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="27" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A4:J4"/>
-    <mergeCell ref="B5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
